--- a/medicine/Psychotrope/Laudun_(côtes-du-rhône_villages)/Laudun_(côtes-du-rhône_villages).xlsx
+++ b/medicine/Psychotrope/Laudun_(côtes-du-rhône_villages)/Laudun_(côtes-du-rhône_villages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le laudun[2], ou côtes-du-rhône villages Laudun, est un vin produit sur les communes de Laudun-l'Ardoise, Saint-Victor-la-Coste et Tresques, dans le département du Gard.
+Le laudun, ou côtes-du-rhône villages Laudun, est un vin produit sur les communes de Laudun-l'Ardoise, Saint-Victor-la-Coste et Tresques, dans le département du Gard.
 Il s'agit d'une des vingt-deux  dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité au Moyen Âge
-La ville ancienne de Laudun se situait sur le plateau du Camp de César qui domine la ville actuelle. Le plateau dit de Saint-Pierre de Castres, qu'on croit avoir été l'emplacement d'un ancien camp romain, est situé en partie dans la commune de Laudun et en partie dans celle de Tresques. On y a trouvé de tout temps, en assez grande quantité, des inscriptions, des armures, des ustensiles, etc. Après l'abandon de l'oppidum à la fin du VIe siècle. Les premiers vestiges du Moyen Âge (XIe – XIIe siècles) se découvrent sur la colline Sainte-Foy où demeurent des pans de murs du château féodal.
+          <t>Antiquité au Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ville ancienne de Laudun se situait sur le plateau du Camp de César qui domine la ville actuelle. Le plateau dit de Saint-Pierre de Castres, qu'on croit avoir été l'emplacement d'un ancien camp romain, est situé en partie dans la commune de Laudun et en partie dans celle de Tresques. On y a trouvé de tout temps, en assez grande quantité, des inscriptions, des armures, des ustensiles, etc. Après l'abandon de l'oppidum à la fin du VIe siècle. Les premiers vestiges du Moyen Âge (XIe – XIIe siècles) se découvrent sur la colline Sainte-Foy où demeurent des pans de murs du château féodal.
 Laudun, riche commune, était une possession des seigneurs de Laudun. Des moulins installés le long de la Tave témoignent de l'activité économique liée à cette petite rivière. Toutefois, le bourg a tiré essentiellement sa richesse et sa renommée de la culture de la vigne.
-Période moderne
-Le XVIe siècle est marqué par l'édification de demeures aux façades de style Renaissance. Au XVIIe siècle, la confrérie des Pénitents blancs fait construire sur la colline Sainte-Foy une chapelle qui domine le bourg.
-Un seigneur de Laudun, François, échanson du Dauphin qui devint plus tard Louis XI, reçut en 1437 le roi Charles VII de France dans son château de Laudun. Vers la fin du XVIe siècle, cette seigneurie est passée par mariage à la maison de Joyeuse. Le bourg s'est ensuite développé vers la plaine avec une deuxième série de fortifications contre lesquelles s'éleva l'église gothique Notre-Dame-la-Neuve (première moitié du XIVe siècle).
-Période contemporaine
 </t>
         </is>
       </c>
@@ -532,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +560,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le XVIe siècle est marqué par l'édification de demeures aux façades de style Renaissance. Au XVIIe siècle, la confrérie des Pénitents blancs fait construire sur la colline Sainte-Foy une chapelle qui domine le bourg.
+Un seigneur de Laudun, François, échanson du Dauphin qui devint plus tard Louis XI, reçut en 1437 le roi Charles VII de France dans son château de Laudun. Vers la fin du XVIe siècle, cette seigneurie est passée par mariage à la maison de Joyeuse. Le bourg s'est ensuite développé vers la plaine avec une deuxième série de fortifications contre lesquelles s'éleva l'église gothique Notre-Dame-la-Neuve (première moitié du XIVe siècle).
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,14 +598,78 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orographie
-Géologie
-Ce chapitre retrace brièvement les principaux événements géologiques qui ont régi la mise en place des roches-mères, puis les grandes étapes d’érosion, de recouvrement et d’alluvionnement qui ont modelé le paysage et composé les sols de l’appellation Laudun.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce chapitre retrace brièvement les principaux événements géologiques qui ont régi la mise en place des roches-mères, puis les grandes étapes d’érosion, de recouvrement et d’alluvionnement qui ont modelé le paysage et composé les sols de l’appellation Laudun.
 La structure géologique de l’aire viticole de l’appellation CDRV Laudun s’appuie au sud de Saint-Victor-la-Coste sur les reliefs des garrigues constitués des calcaires récifaux de l’Urgonien. Ces calcaires massifs et très résistants proviennent de la grande barrière de corail édifiée il y a 120 millions d’années (MA), au milieu de la période crétacée dans une mer chaude (Barrémien).
 Les reliefs au Nord de Laudun et Tresques sont constitués de différentes couches calcaires et gréseuses formées, selon les périodes, en milieu marin peu profond ou en milieu continental littoral. En effet, à la fin de la période du Crétacé supérieur, (fin de l’Ère secondaire), soit 30 MA plus tard, la mer se retire vers le nord, créant dans la région de Bagnols une zone littorale envahie par des deltas sableux provenant des reliefs du Massif Central encore jeune. L’évolution de ces formations a donné des sables blancs, jaunes, ocre à rouges, qui par consolidation donneront des grès siliceux et quartzites. Durant toute cette période, la mer n’a cessé d’avancer et de reculer. Les roches actuelles sont très stratifiées et variables du fait de cette instabilité passée du trait de côte. Éléments calcaires et siliceux, gréseux ou non, avec parfois des strates plus tendres sableuses ou marneuses se superposent et se succèdent aujourd’hui du Serre de Bernon, à la Plaine des Avaux et au Plateau de Lacau.
 Ce n’est qu’à l’Ère tertiaire, à la fin de la période éocène-oligocène, soit il y a 30-40 MA que la vallée du Rhône prendra sa direction et son allure générale actuelles. À cette période de grands mouvements liés à l’émersion des chaînes pyrénéo-provençales provoquent plissements d’axe est-ouest et fracturations de l’écorce terrestre. Des failles majeures vont structurer toute la région, comme la faille de Roquemaure qui sépare le domaine des collines calcaires du sud de Saint-Victor-la-Coste de la vallée de la Tave.
@@ -594,55 +683,269 @@
 C’est aussi à cette époque que des limons et sables éoliens venant du Nord se déposent sur des pelouses steppiques sous abris en piémont des collines calcaires (Les Clauds sur Laudun). Ces lœss sont repris ensuite dans les alluvions et colluvions
 récentes de la vallée de la Tave.
 Enfin les 12000 dernières années ont vu agir sous un climat proche du nôtre, les agents d’érosion : l’eau et la gravité, puis l’homme agriculteur remodelant les pentes et recreusant les réseaux de drainage, comme dans la vallée de la Tave. La vigne y apparaît il y a plus de 2 millénaires.
-Climatologie
-De type méditerranéen (méso-méditerranéen) et se caractérisant notamment par un nombre de jours de mistral fort élevé (plus de 110 jours par an).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De type méditerranéen (méso-méditerranéen) et se caractérisant notamment par un nombre de jours de mistral fort élevé (plus de 110 jours par an).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur les communes de Laudun, Saint-Victor-la-Coste et Tresques
-Encépagement
-Les cépages rouges sont grenache N 50 % minimum, syrah et/ou mourvèdre 20 % minimum. Les cépages blancs sont clairette, marsanne, roussanne, bourboulenc, viognier. Pour l'élaboration des vins rouges, rosés ou blancs, les autres cépages blancs sont admis à 20 % maximum.
-Méthodes culturales
-L'appellation sur 298 hectares a une production annuelle de 11 315 hectolitres, avec un rendement de 38 hl/ha.
-Terroir et vins
-Les conditions de production de grands vins blancs
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de Laudun, Saint-Victor-la-Coste et Tresques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages rouges sont grenache N 50 % minimum, syrah et/ou mourvèdre 20 % minimum. Les cépages blancs sont clairette, marsanne, roussanne, bourboulenc, viognier. Pour l'élaboration des vins rouges, rosés ou blancs, les autres cépages blancs sont admis à 20 % maximum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation sur 298 hectares a une production annuelle de 11 315 hectolitres, avec un rendement de 38 hl/ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions de production de grands vins blancs
 Le vignoble de Laudun s’étend sur trois communes Laudun, Tresques et saint-Victor La Coste et possède une mosaïque de terroirs :
 Certains présentent des sols caillouteux: épandages calcaire ou terrasses anciennes du Rhône à galets roulés : sols emblématiques des Côtes du Rhône ayant prouvé leur capacité à produire des vins rouges de grande qualité.         
 D’autres plus légers, le plus souvent sableux, parfois issus de lœss, ayant une capacité au ressuyage et au drainage conviennent particulièrement pour l’élaboration des vins blancs.
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-Type de vins et gastronomie
-Pour les vins rouges :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les vins rouges :
 Grenache 50% minimum, syrah et/mourvèdre 20% minimum, autres cépages admis de l’appellation le carignan, cinsaut, counoise, muscardin, piquepoul noir, terret noir pour 20% maximum
 Sensations  visuelles : robe pourpre à grenat, soutenue et brillante
 Sensations olfactives : nez expressif et riche, bouquet composé
@@ -655,65 +958,104 @@
 Sensations  visuelles : robe jaune pâle aux reflets jaune paille éclatante et brillante.
 Sensations olfactives : nez aromatique, complexe et fin, révélé par des notes des fruits exotiques, de pêches blanches, d’abricots, et de fleurs blanches.
 Sensations gustatives : attaque fraîche, avec une sensation de rondeur et de richesse pour une finale persistante et fondue.
-Commercialisation
-L'appellation commercialise 12000 hectolitres répartis ainsi :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation commercialise 12000 hectolitres répartis ainsi :
 86% en France, 14% à l’export, 40% en grande distribution, 15% grossistes, 15% en vente directe, 7% cavistes.
 Pays principaux de destination à l’export : Royaume-Uni, Belgique, et Amérique du Nord.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Laudun_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudun_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>La place de Laudun parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
